--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lan/Desktop/VLDB26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E7A57-A09E-274C-88D5-B7BDB783DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE625E-CD26-6B4B-B809-5A1DF1EE9862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_paper_eval_final" sheetId="1" r:id="rId1"/>
@@ -402,16 +402,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -931,10 +934,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -947,6 +946,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1162,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ970"/>
+  <dimension ref="A1:AJ971"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="I197" sqref="I197"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1827,7 +1830,7 @@
         <f t="shared" si="1"/>
         <v>37.200000000000003</v>
       </c>
-      <c r="I13" s="96" t="s">
+      <c r="I13" s="94" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="5"/>
@@ -1893,7 +1896,7 @@
       <c r="L14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="95" t="s">
+      <c r="M14" s="93" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="7"/>
@@ -2588,7 +2591,7 @@
         <f t="shared" ref="L26" si="3">MIN(L15:L22)</f>
         <v>43.89</v>
       </c>
-      <c r="M26" s="94" t="s">
+      <c r="M26" s="92" t="s">
         <v>113</v>
       </c>
       <c r="N26" s="11"/>
@@ -4543,7 +4546,7 @@
         <f t="shared" ref="L60" si="7">MIN(L49:L56)</f>
         <v>35.78</v>
       </c>
-      <c r="M60" s="94" t="s">
+      <c r="M60" s="92" t="s">
         <v>113</v>
       </c>
       <c r="N60" s="11"/>
@@ -10126,7 +10129,7 @@
       <c r="F159" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G159" s="93" t="s">
+      <c r="G159" s="91" t="s">
         <v>114</v>
       </c>
       <c r="H159" s="49"/>
@@ -11201,32 +11204,42 @@
       <c r="AJ181" s="63"/>
     </row>
     <row r="182" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A182" s="71"/>
-      <c r="B182" s="67"/>
-      <c r="C182" s="68"/>
-      <c r="D182" s="69"/>
-      <c r="E182" s="69"/>
-      <c r="F182" s="68"/>
-      <c r="G182" s="68"/>
-      <c r="H182" s="69"/>
-      <c r="I182" s="69"/>
-      <c r="J182" s="69"/>
-      <c r="K182" s="69"/>
-      <c r="L182" s="69"/>
-      <c r="M182" s="69"/>
-      <c r="N182" s="69"/>
-      <c r="O182" s="69"/>
-      <c r="P182" s="69"/>
-      <c r="Q182" s="69"/>
-      <c r="R182" s="69"/>
-      <c r="S182" s="69"/>
-      <c r="T182" s="69"/>
-      <c r="U182" s="69"/>
-      <c r="V182" s="69"/>
-      <c r="W182" s="69"/>
-      <c r="X182" s="69"/>
-      <c r="Y182" s="69"/>
-      <c r="Z182" s="70"/>
+      <c r="A182" s="59"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="63"/>
+      <c r="H182" s="63"/>
+      <c r="I182" s="63"/>
+      <c r="J182" s="63"/>
+      <c r="K182" s="63"/>
+      <c r="L182" s="63"/>
+      <c r="M182" s="63"/>
+      <c r="N182" s="63"/>
+      <c r="O182" s="63"/>
+      <c r="P182" s="63"/>
+      <c r="Q182" s="63"/>
+      <c r="R182" s="63"/>
+      <c r="S182" s="63"/>
+      <c r="T182" s="63"/>
+      <c r="U182" s="63"/>
+      <c r="V182" s="63"/>
+      <c r="W182" s="63"/>
+      <c r="X182" s="63"/>
+      <c r="Y182" s="63"/>
+      <c r="Z182" s="63"/>
+      <c r="AA182" s="63"/>
+      <c r="AB182" s="63"/>
+      <c r="AC182" s="63"/>
+      <c r="AD182" s="63"/>
+      <c r="AE182" s="63"/>
+      <c r="AF182" s="63"/>
+      <c r="AG182" s="63"/>
+      <c r="AH182" s="63"/>
+      <c r="AI182" s="63"/>
+      <c r="AJ182" s="63"/>
     </row>
     <row r="183" spans="1:36" ht="12.75" customHeight="1">
       <c r="A183" s="71"/>
@@ -11256,11 +11269,9 @@
       <c r="Y183" s="69"/>
       <c r="Z183" s="70"/>
     </row>
-    <row r="184" spans="1:36" ht="26" customHeight="1">
-      <c r="A184" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="B184" s="98"/>
+    <row r="184" spans="1:36" ht="12.75" customHeight="1">
+      <c r="A184" s="71"/>
+      <c r="B184" s="67"/>
       <c r="C184" s="68"/>
       <c r="D184" s="69"/>
       <c r="E184" s="69"/>
@@ -11286,9 +11297,11 @@
       <c r="Y184" s="69"/>
       <c r="Z184" s="70"/>
     </row>
-    <row r="185" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A185" s="71"/>
-      <c r="B185" s="67"/>
+    <row r="185" spans="1:36" ht="26" customHeight="1">
+      <c r="A185" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B185" s="96"/>
       <c r="C185" s="68"/>
       <c r="D185" s="69"/>
       <c r="E185" s="69"/>
@@ -11315,22 +11328,12 @@
       <c r="Z185" s="70"/>
     </row>
     <row r="186" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A186" s="72"/>
-      <c r="B186" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C186" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D186" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F186" s="74" t="s">
-        <v>80</v>
-      </c>
+      <c r="A186" s="71"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="68"/>
+      <c r="D186" s="69"/>
+      <c r="E186" s="69"/>
+      <c r="F186" s="68"/>
       <c r="G186" s="68"/>
       <c r="H186" s="69"/>
       <c r="I186" s="69"/>
@@ -11353,28 +11356,21 @@
       <c r="Z186" s="70"/>
     </row>
     <row r="187" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A187" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" s="73">
-        <f>H10</f>
-        <v>67</v>
-      </c>
-      <c r="C187" s="75">
-        <f>H13</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D187" s="74">
-        <f>H11</f>
-        <v>35.6</v>
-      </c>
-      <c r="E187" s="74">
-        <f t="shared" ref="E187:E201" si="29">(B187-C187)/B187</f>
-        <v>0.44477611940298506</v>
-      </c>
-      <c r="F187" s="74">
-        <f t="shared" ref="F187:F201" si="30">(D187-C187)/D187</f>
-        <v>-4.4943820224719142E-2</v>
+      <c r="A187" s="72"/>
+      <c r="B187" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F187" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="G187" s="68"/>
       <c r="H187" s="69"/>
@@ -11399,27 +11395,27 @@
     </row>
     <row r="188" spans="1:36" ht="12.75" customHeight="1">
       <c r="A188" s="72" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B188" s="73">
-        <f>L23</f>
-        <v>81.44</v>
+        <f>H10</f>
+        <v>67</v>
       </c>
       <c r="C188" s="75">
-        <f>L26</f>
-        <v>43.89</v>
+        <f>H13</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="D188" s="74">
-        <f>L24</f>
-        <v>44.78</v>
+        <f>H11</f>
+        <v>35.6</v>
       </c>
       <c r="E188" s="74">
-        <f t="shared" si="29"/>
-        <v>0.46107563850687622</v>
+        <f t="shared" ref="E188:E202" si="29">(B188-C188)/B188</f>
+        <v>0.44477611940298506</v>
       </c>
       <c r="F188" s="74">
-        <f t="shared" si="30"/>
-        <v>1.9874944171505149E-2</v>
+        <f t="shared" ref="F188:F202" si="30">(D188-C188)/D188</f>
+        <v>-4.4943820224719142E-2</v>
       </c>
       <c r="G188" s="68"/>
       <c r="H188" s="69"/>
@@ -11444,27 +11440,27 @@
     </row>
     <row r="189" spans="1:36" ht="12.75" customHeight="1">
       <c r="A189" s="72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B189" s="73">
-        <f>J44</f>
-        <v>72.989999999999995</v>
+        <f>L23</f>
+        <v>81.44</v>
       </c>
       <c r="C189" s="75">
-        <f>J47</f>
-        <v>35.53</v>
+        <f>L26</f>
+        <v>43.89</v>
       </c>
       <c r="D189" s="74">
-        <f>J45</f>
-        <v>35.25</v>
+        <f>L24</f>
+        <v>44.78</v>
       </c>
       <c r="E189" s="74">
         <f t="shared" si="29"/>
-        <v>0.51322098917659953</v>
+        <v>0.46107563850687622</v>
       </c>
       <c r="F189" s="74">
         <f t="shared" si="30"/>
-        <v>-7.9432624113475493E-3</v>
+        <v>1.9874944171505149E-2</v>
       </c>
       <c r="G189" s="68"/>
       <c r="H189" s="69"/>
@@ -11489,27 +11485,27 @@
     </row>
     <row r="190" spans="1:36" ht="12.75" customHeight="1">
       <c r="A190" s="72" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B190" s="73">
-        <f>L57</f>
-        <v>63</v>
+        <f>J44</f>
+        <v>72.989999999999995</v>
       </c>
       <c r="C190" s="75">
-        <f>L60</f>
-        <v>35.78</v>
+        <f>J47</f>
+        <v>35.53</v>
       </c>
       <c r="D190" s="74">
-        <f>L58</f>
-        <v>35.22</v>
+        <f>J45</f>
+        <v>35.25</v>
       </c>
       <c r="E190" s="74">
         <f t="shared" si="29"/>
-        <v>0.43206349206349204</v>
+        <v>0.51322098917659953</v>
       </c>
       <c r="F190" s="74">
         <f t="shared" si="30"/>
-        <v>-1.5900056785917157E-2</v>
+        <v>-7.9432624113475493E-3</v>
       </c>
       <c r="G190" s="68"/>
       <c r="H190" s="69"/>
@@ -11534,27 +11530,27 @@
     </row>
     <row r="191" spans="1:36" ht="12.75" customHeight="1">
       <c r="A191" s="72" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B191" s="73">
-        <f>K70</f>
-        <v>69.459999999999994</v>
+        <f>L57</f>
+        <v>63</v>
       </c>
       <c r="C191" s="75">
-        <f>K73</f>
-        <v>35.81</v>
+        <f>L60</f>
+        <v>35.78</v>
       </c>
       <c r="D191" s="74">
-        <f>K71</f>
-        <v>34.729999999999997</v>
+        <f>L58</f>
+        <v>35.22</v>
       </c>
       <c r="E191" s="74">
         <f t="shared" si="29"/>
-        <v>0.48445148286783751</v>
+        <v>0.43206349206349204</v>
       </c>
       <c r="F191" s="74">
         <f t="shared" si="30"/>
-        <v>-3.109703426432495E-2</v>
+        <v>-1.5900056785917157E-2</v>
       </c>
       <c r="G191" s="68"/>
       <c r="H191" s="69"/>
@@ -11579,27 +11575,27 @@
     </row>
     <row r="192" spans="1:36" ht="12.75" customHeight="1">
       <c r="A192" s="72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B192" s="73">
-        <f>M83</f>
-        <v>69.13</v>
+        <f>K70</f>
+        <v>69.459999999999994</v>
       </c>
       <c r="C192" s="75">
-        <f>M86</f>
-        <v>37.06</v>
+        <f>K73</f>
+        <v>35.81</v>
       </c>
       <c r="D192" s="74">
-        <f>M84</f>
-        <v>37.200000000000003</v>
+        <f>K71</f>
+        <v>34.729999999999997</v>
       </c>
       <c r="E192" s="74">
         <f t="shared" si="29"/>
-        <v>0.46390857804137126</v>
+        <v>0.48445148286783751</v>
       </c>
       <c r="F192" s="74">
         <f t="shared" si="30"/>
-        <v>3.7634408602150687E-3</v>
+        <v>-3.109703426432495E-2</v>
       </c>
       <c r="G192" s="68"/>
       <c r="H192" s="69"/>
@@ -11624,29 +11620,29 @@
     </row>
     <row r="193" spans="1:26" ht="12.75" customHeight="1">
       <c r="A193" s="72" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B193" s="73">
-        <f>O96</f>
-        <v>111.04</v>
+        <f>M83</f>
+        <v>69.13</v>
       </c>
       <c r="C193" s="75">
-        <f>O99</f>
-        <v>59.83</v>
+        <f>M86</f>
+        <v>37.06</v>
       </c>
       <c r="D193" s="74">
-        <f>O97</f>
-        <v>44.36</v>
+        <f>M84</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="E193" s="74">
         <f t="shared" si="29"/>
-        <v>0.46118515850144098</v>
+        <v>0.46390857804137126</v>
       </c>
       <c r="F193" s="74">
         <f t="shared" si="30"/>
-        <v>-0.34873760144274119</v>
-      </c>
-      <c r="G193" s="76"/>
+        <v>3.7634408602150687E-3</v>
+      </c>
+      <c r="G193" s="68"/>
       <c r="H193" s="69"/>
       <c r="I193" s="69"/>
       <c r="J193" s="69"/>
@@ -11669,29 +11665,29 @@
     </row>
     <row r="194" spans="1:26" ht="12.75" customHeight="1">
       <c r="A194" s="72" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B194" s="73">
-        <f>G109</f>
-        <v>46</v>
+        <f>O96</f>
+        <v>111.04</v>
       </c>
       <c r="C194" s="75">
-        <f>G112</f>
-        <v>31</v>
+        <f>O99</f>
+        <v>59.83</v>
       </c>
       <c r="D194" s="74">
-        <f>G110</f>
-        <v>30</v>
+        <f>O97</f>
+        <v>44.36</v>
       </c>
       <c r="E194" s="74">
         <f t="shared" si="29"/>
-        <v>0.32608695652173914</v>
+        <v>0.46118515850144098</v>
       </c>
       <c r="F194" s="74">
         <f t="shared" si="30"/>
-        <v>-3.3333333333333333E-2</v>
-      </c>
-      <c r="G194" s="68"/>
+        <v>-0.34873760144274119</v>
+      </c>
+      <c r="G194" s="76"/>
       <c r="H194" s="69"/>
       <c r="I194" s="69"/>
       <c r="J194" s="69"/>
@@ -11714,27 +11710,27 @@
     </row>
     <row r="195" spans="1:26" ht="12.75" customHeight="1">
       <c r="A195" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B195" s="73">
-        <f>N122</f>
-        <v>56.56</v>
+        <f>G109</f>
+        <v>46</v>
       </c>
       <c r="C195" s="75">
-        <f>N125</f>
-        <v>35.4</v>
+        <f>G112</f>
+        <v>31</v>
       </c>
       <c r="D195" s="74">
-        <f>N123</f>
-        <v>37.979999999999997</v>
+        <f>G110</f>
+        <v>30</v>
       </c>
       <c r="E195" s="74">
         <f t="shared" si="29"/>
-        <v>0.37411598302687415</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="F195" s="74">
         <f t="shared" si="30"/>
-        <v>6.793048973143756E-2</v>
+        <v>-3.3333333333333333E-2</v>
       </c>
       <c r="G195" s="68"/>
       <c r="H195" s="69"/>
@@ -11759,27 +11755,27 @@
     </row>
     <row r="196" spans="1:26" ht="12.75" customHeight="1">
       <c r="A196" s="72" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B196" s="73">
-        <f>F129</f>
-        <v>60.33</v>
+        <f>N122</f>
+        <v>56.56</v>
       </c>
       <c r="C196" s="75">
-        <f>F132</f>
-        <v>46.67</v>
+        <f>N125</f>
+        <v>35.4</v>
       </c>
       <c r="D196" s="74">
-        <f>F130</f>
-        <v>46.67</v>
+        <f>N123</f>
+        <v>37.979999999999997</v>
       </c>
       <c r="E196" s="74">
         <f t="shared" si="29"/>
-        <v>0.22642134924581464</v>
+        <v>0.37411598302687415</v>
       </c>
       <c r="F196" s="74">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6.793048973143756E-2</v>
       </c>
       <c r="G196" s="68"/>
       <c r="H196" s="69"/>
@@ -11804,27 +11800,27 @@
     </row>
     <row r="197" spans="1:26" ht="12.75" customHeight="1">
       <c r="A197" s="72" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B197" s="73">
-        <f>F142</f>
-        <v>126</v>
+        <f>F129</f>
+        <v>60.33</v>
       </c>
       <c r="C197" s="75">
-        <f>F145</f>
-        <v>45.33</v>
+        <f>F132</f>
+        <v>46.67</v>
       </c>
       <c r="D197" s="74">
-        <f>F143</f>
-        <v>47.67</v>
+        <f>F130</f>
+        <v>46.67</v>
       </c>
       <c r="E197" s="74">
         <f t="shared" si="29"/>
-        <v>0.64023809523809527</v>
+        <v>0.22642134924581464</v>
       </c>
       <c r="F197" s="74">
         <f t="shared" si="30"/>
-        <v>4.9087476400251802E-2</v>
+        <v>0</v>
       </c>
       <c r="G197" s="68"/>
       <c r="H197" s="69"/>
@@ -11849,27 +11845,27 @@
     </row>
     <row r="198" spans="1:26" ht="12.75" customHeight="1">
       <c r="A198" s="72" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B198" s="73">
-        <f>H155</f>
-        <v>67.8</v>
+        <f>F142</f>
+        <v>126</v>
       </c>
       <c r="C198" s="75">
-        <f>H158</f>
-        <v>38</v>
+        <f>F145</f>
+        <v>45.33</v>
       </c>
       <c r="D198" s="74">
-        <f>H156</f>
-        <v>40.799999999999997</v>
+        <f>F143</f>
+        <v>47.67</v>
       </c>
       <c r="E198" s="74">
         <f t="shared" si="29"/>
-        <v>0.43952802359882004</v>
+        <v>0.64023809523809527</v>
       </c>
       <c r="F198" s="74">
         <f t="shared" si="30"/>
-        <v>6.8627450980392093E-2</v>
+        <v>4.9087476400251802E-2</v>
       </c>
       <c r="G198" s="68"/>
       <c r="H198" s="69"/>
@@ -11894,27 +11890,27 @@
     </row>
     <row r="199" spans="1:26" ht="12.75" customHeight="1">
       <c r="A199" s="72" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B199" s="73">
-        <f>G164</f>
-        <v>62</v>
+        <f>H155</f>
+        <v>67.8</v>
       </c>
       <c r="C199" s="75">
-        <f>G167</f>
-        <v>36</v>
+        <f>H158</f>
+        <v>38</v>
       </c>
       <c r="D199" s="74">
-        <f>G165</f>
-        <v>36</v>
+        <f>H156</f>
+        <v>40.799999999999997</v>
       </c>
       <c r="E199" s="74">
         <f t="shared" si="29"/>
-        <v>0.41935483870967744</v>
+        <v>0.43952802359882004</v>
       </c>
       <c r="F199" s="74">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6.8627450980392093E-2</v>
       </c>
       <c r="G199" s="68"/>
       <c r="H199" s="69"/>
@@ -11939,29 +11935,29 @@
     </row>
     <row r="200" spans="1:26" ht="12.75" customHeight="1">
       <c r="A200" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B200" s="73">
-        <f>F171</f>
-        <v>74</v>
+        <f>G164</f>
+        <v>62</v>
       </c>
       <c r="C200" s="75">
-        <f>F174</f>
-        <v>49</v>
+        <f>G167</f>
+        <v>36</v>
       </c>
       <c r="D200" s="74">
-        <f>F172</f>
-        <v>71</v>
+        <f>G165</f>
+        <v>36</v>
       </c>
       <c r="E200" s="74">
         <f t="shared" si="29"/>
-        <v>0.33783783783783783</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="F200" s="74">
         <f t="shared" si="30"/>
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="G200" s="77"/>
+        <v>0</v>
+      </c>
+      <c r="G200" s="68"/>
       <c r="H200" s="69"/>
       <c r="I200" s="69"/>
       <c r="J200" s="69"/>
@@ -11984,29 +11980,29 @@
     </row>
     <row r="201" spans="1:26" ht="12.75" customHeight="1">
       <c r="A201" s="72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B201" s="73">
-        <f>E177</f>
-        <v>32</v>
+        <f>F171</f>
+        <v>74</v>
       </c>
       <c r="C201" s="75">
-        <f>E180</f>
-        <v>32</v>
+        <f>F174</f>
+        <v>49</v>
       </c>
       <c r="D201" s="74">
-        <f>E178</f>
-        <v>28</v>
+        <f>F172</f>
+        <v>71</v>
       </c>
       <c r="E201" s="74">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.33783783783783783</v>
       </c>
       <c r="F201" s="74">
         <f t="shared" si="30"/>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="G201" s="68"/>
+        <v>0.30985915492957744</v>
+      </c>
+      <c r="G201" s="77"/>
       <c r="H201" s="69"/>
       <c r="I201" s="69"/>
       <c r="J201" s="69"/>
@@ -12028,12 +12024,29 @@
       <c r="Z201" s="70"/>
     </row>
     <row r="202" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A202" s="71"/>
-      <c r="B202" s="67"/>
-      <c r="C202" s="68"/>
-      <c r="D202" s="69"/>
-      <c r="E202" s="69"/>
-      <c r="F202" s="68"/>
+      <c r="A202" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" s="73">
+        <f>E177</f>
+        <v>32</v>
+      </c>
+      <c r="C202" s="75">
+        <f>E180</f>
+        <v>32</v>
+      </c>
+      <c r="D202" s="74">
+        <f>E178</f>
+        <v>28</v>
+      </c>
+      <c r="E202" s="74">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="74">
+        <f t="shared" si="30"/>
+        <v>-0.14285714285714285</v>
+      </c>
       <c r="G202" s="68"/>
       <c r="H202" s="69"/>
       <c r="I202" s="69"/>
@@ -12084,9 +12097,7 @@
       <c r="Z203" s="70"/>
     </row>
     <row r="204" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A204" s="71" t="s">
-        <v>82</v>
-      </c>
+      <c r="A204" s="71"/>
       <c r="B204" s="67"/>
       <c r="C204" s="68"/>
       <c r="D204" s="69"/>
@@ -12114,22 +12125,14 @@
       <c r="Z204" s="70"/>
     </row>
     <row r="205" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A205" s="78"/>
-      <c r="B205" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C205" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D205" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="F205" s="80" t="s">
-        <v>80</v>
-      </c>
+      <c r="A205" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B205" s="67"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="69"/>
+      <c r="E205" s="69"/>
+      <c r="F205" s="68"/>
       <c r="G205" s="68"/>
       <c r="H205" s="69"/>
       <c r="I205" s="69"/>
@@ -12152,26 +12155,21 @@
       <c r="Z205" s="70"/>
     </row>
     <row r="206" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A206" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="82">
-        <v>67</v>
-      </c>
-      <c r="C206" s="83">
-        <f>37</f>
-        <v>37</v>
-      </c>
-      <c r="D206" s="83">
-        <v>36</v>
-      </c>
-      <c r="E206" s="83">
-        <f t="shared" ref="E206:E220" si="31">(B206-C206)/B206</f>
-        <v>0.44776119402985076</v>
-      </c>
-      <c r="F206" s="83">
-        <f t="shared" ref="F206:F220" si="32">(D206-C206)/D206</f>
-        <v>-2.7777777777777776E-2</v>
+      <c r="A206" s="78"/>
+      <c r="B206" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C206" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D206" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F206" s="80" t="s">
+        <v>80</v>
       </c>
       <c r="G206" s="68"/>
       <c r="H206" s="69"/>
@@ -12196,24 +12194,25 @@
     </row>
     <row r="207" spans="1:26" ht="12.75" customHeight="1">
       <c r="A207" s="81" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B207" s="82">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C207" s="83">
-        <v>44</v>
+        <f>37</f>
+        <v>37</v>
       </c>
       <c r="D207" s="83">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E207" s="83">
-        <f t="shared" si="31"/>
-        <v>0.4567901234567901</v>
+        <f t="shared" ref="E207:E221" si="31">(B207-C207)/B207</f>
+        <v>0.44776119402985076</v>
       </c>
       <c r="F207" s="83">
-        <f t="shared" si="32"/>
-        <v>2.2222222222222223E-2</v>
+        <f t="shared" ref="F207:F221" si="32">(D207-C207)/D207</f>
+        <v>-2.7777777777777776E-2</v>
       </c>
       <c r="G207" s="68"/>
       <c r="H207" s="69"/>
@@ -12238,25 +12237,24 @@
     </row>
     <row r="208" spans="1:26" ht="12.75" customHeight="1">
       <c r="A208" s="81" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B208" s="82">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C208" s="83">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D208" s="83">
-        <f>35</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E208" s="83">
         <f t="shared" si="31"/>
-        <v>0.50684931506849318</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="F208" s="83">
         <f t="shared" si="32"/>
-        <v>-2.8571428571428571E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="G208" s="68"/>
       <c r="H208" s="69"/>
@@ -12281,20 +12279,21 @@
     </row>
     <row r="209" spans="1:36" ht="12.75" customHeight="1">
       <c r="A209" s="81" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B209" s="82">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C209" s="83">
         <v>36</v>
       </c>
       <c r="D209" s="83">
+        <f>35</f>
         <v>35</v>
       </c>
       <c r="E209" s="83">
         <f t="shared" si="31"/>
-        <v>0.42857142857142855</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="F209" s="83">
         <f t="shared" si="32"/>
@@ -12323,11 +12322,10 @@
     </row>
     <row r="210" spans="1:36" ht="12.75" customHeight="1">
       <c r="A210" s="81" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B210" s="82">
-        <f>69</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C210" s="83">
         <v>36</v>
@@ -12337,7 +12335,7 @@
       </c>
       <c r="E210" s="83">
         <f t="shared" si="31"/>
-        <v>0.47826086956521741</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F210" s="83">
         <f t="shared" si="32"/>
@@ -12366,24 +12364,25 @@
     </row>
     <row r="211" spans="1:36" ht="12.75" customHeight="1">
       <c r="A211" s="81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B211" s="82">
+        <f>69</f>
         <v>69</v>
       </c>
       <c r="C211" s="83">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D211" s="83">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E211" s="83">
         <f t="shared" si="31"/>
-        <v>0.46376811594202899</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="F211" s="83">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-2.8571428571428571E-2</v>
       </c>
       <c r="G211" s="68"/>
       <c r="H211" s="69"/>
@@ -12408,26 +12407,26 @@
     </row>
     <row r="212" spans="1:36" ht="12.75" customHeight="1">
       <c r="A212" s="81" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B212" s="82">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C212" s="83">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D212" s="83">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E212" s="83">
         <f t="shared" si="31"/>
-        <v>0.45945945945945948</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="F212" s="83">
         <f t="shared" si="32"/>
-        <v>-0.36363636363636365</v>
-      </c>
-      <c r="G212" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="68"/>
       <c r="H212" s="69"/>
       <c r="I212" s="69"/>
       <c r="J212" s="69"/>
@@ -12450,28 +12449,26 @@
     </row>
     <row r="213" spans="1:36" ht="12.75" customHeight="1">
       <c r="A213" s="81" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B213" s="82">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C213" s="83">
-        <f>31</f>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D213" s="83">
-        <f>30</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E213" s="83">
         <f t="shared" si="31"/>
-        <v>0.32608695652173914</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="F213" s="83">
         <f t="shared" si="32"/>
-        <v>-3.3333333333333333E-2</v>
-      </c>
-      <c r="G213" s="68"/>
+        <v>-0.36363636363636365</v>
+      </c>
+      <c r="G213" s="76"/>
       <c r="H213" s="69"/>
       <c r="I213" s="69"/>
       <c r="J213" s="69"/>
@@ -12494,26 +12491,26 @@
     </row>
     <row r="214" spans="1:36" ht="12.75" customHeight="1">
       <c r="A214" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B214" s="82">
-        <f>57</f>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C214" s="83">
-        <v>35</v>
+        <f>31</f>
+        <v>31</v>
       </c>
       <c r="D214" s="83">
-        <f>38</f>
-        <v>38</v>
+        <f>30</f>
+        <v>30</v>
       </c>
       <c r="E214" s="83">
         <f t="shared" si="31"/>
-        <v>0.38596491228070173</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="F214" s="83">
         <f t="shared" si="32"/>
-        <v>7.8947368421052627E-2</v>
+        <v>-3.3333333333333333E-2</v>
       </c>
       <c r="G214" s="68"/>
       <c r="H214" s="69"/>
@@ -12538,25 +12535,26 @@
     </row>
     <row r="215" spans="1:36" ht="12.75" customHeight="1">
       <c r="A215" s="81" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B215" s="82">
-        <f>60</f>
-        <v>60</v>
+        <f>57</f>
+        <v>57</v>
       </c>
       <c r="C215" s="83">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D215" s="83">
-        <v>47</v>
+        <f>38</f>
+        <v>38</v>
       </c>
       <c r="E215" s="83">
         <f t="shared" si="31"/>
-        <v>0.21666666666666667</v>
+        <v>0.38596491228070173</v>
       </c>
       <c r="F215" s="83">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="G215" s="68"/>
       <c r="H215" s="69"/>
@@ -12581,24 +12579,25 @@
     </row>
     <row r="216" spans="1:36" ht="12.75" customHeight="1">
       <c r="A216" s="81" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B216" s="82">
-        <v>126</v>
+        <f>60</f>
+        <v>60</v>
       </c>
       <c r="C216" s="83">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D216" s="83">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E216" s="83">
         <f t="shared" si="31"/>
-        <v>0.6428571428571429</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="F216" s="83">
         <f t="shared" si="32"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G216" s="68"/>
       <c r="H216" s="69"/>
@@ -12623,25 +12622,24 @@
     </row>
     <row r="217" spans="1:36" ht="12.75" customHeight="1">
       <c r="A217" s="81" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B217" s="82">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C217" s="83">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D217" s="83">
-        <f>41</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E217" s="83">
         <f t="shared" si="31"/>
-        <v>0.44117647058823528</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="F217" s="83">
         <f t="shared" si="32"/>
-        <v>7.3170731707317069E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G217" s="68"/>
       <c r="H217" s="69"/>
@@ -12666,25 +12664,25 @@
     </row>
     <row r="218" spans="1:36" ht="12.75" customHeight="1">
       <c r="A218" s="81" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B218" s="82">
-        <f>62</f>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C218" s="83">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D218" s="83">
-        <v>36</v>
+        <f>41</f>
+        <v>41</v>
       </c>
       <c r="E218" s="83">
         <f t="shared" si="31"/>
-        <v>0.41935483870967744</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="F218" s="83">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="G218" s="68"/>
       <c r="H218" s="69"/>
@@ -12709,27 +12707,27 @@
     </row>
     <row r="219" spans="1:36" ht="12.75" customHeight="1">
       <c r="A219" s="81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B219" s="82">
-        <f>74</f>
-        <v>74</v>
+        <f>62</f>
+        <v>62</v>
       </c>
       <c r="C219" s="83">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D219" s="83">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E219" s="83">
         <f t="shared" si="31"/>
-        <v>0.33783783783783783</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="F219" s="83">
         <f t="shared" si="32"/>
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="G219" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="68"/>
       <c r="H219" s="69"/>
       <c r="I219" s="69"/>
       <c r="J219" s="69"/>
@@ -12752,27 +12750,27 @@
     </row>
     <row r="220" spans="1:36" ht="12.75" customHeight="1">
       <c r="A220" s="81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B220" s="82">
-        <f>32</f>
-        <v>32</v>
+        <f>74</f>
+        <v>74</v>
       </c>
       <c r="C220" s="83">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D220" s="83">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E220" s="83">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.33783783783783783</v>
       </c>
       <c r="F220" s="83">
         <f t="shared" si="32"/>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="G220" s="68"/>
+        <v>0.30985915492957744</v>
+      </c>
+      <c r="G220" s="76"/>
       <c r="H220" s="69"/>
       <c r="I220" s="69"/>
       <c r="J220" s="69"/>
@@ -12794,12 +12792,27 @@
       <c r="Z220" s="70"/>
     </row>
     <row r="221" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A221" s="71"/>
-      <c r="B221" s="67"/>
-      <c r="C221" s="68"/>
-      <c r="D221" s="69"/>
-      <c r="E221" s="69"/>
-      <c r="F221" s="68"/>
+      <c r="A221" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B221" s="82">
+        <f>32</f>
+        <v>32</v>
+      </c>
+      <c r="C221" s="83">
+        <v>32</v>
+      </c>
+      <c r="D221" s="83">
+        <v>28</v>
+      </c>
+      <c r="E221" s="83">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F221" s="83">
+        <f t="shared" si="32"/>
+        <v>-0.14285714285714285</v>
+      </c>
       <c r="G221" s="68"/>
       <c r="H221" s="69"/>
       <c r="I221" s="69"/>
@@ -12847,17 +12860,7 @@
       <c r="W222" s="69"/>
       <c r="X222" s="69"/>
       <c r="Y222" s="69"/>
-      <c r="Z222" s="69"/>
-      <c r="AA222" s="69"/>
-      <c r="AB222" s="69"/>
-      <c r="AC222" s="69"/>
-      <c r="AD222" s="69"/>
-      <c r="AE222" s="69"/>
-      <c r="AF222" s="69"/>
-      <c r="AG222" s="69"/>
-      <c r="AH222" s="69"/>
-      <c r="AI222" s="69"/>
-      <c r="AJ222" s="69"/>
+      <c r="Z222" s="70"/>
     </row>
     <row r="223" spans="1:36" ht="12.75" customHeight="1">
       <c r="A223" s="71"/>
@@ -12897,7 +12900,7 @@
       <c r="AI223" s="69"/>
       <c r="AJ223" s="69"/>
     </row>
-    <row r="224" spans="1:36" ht="12" customHeight="1">
+    <row r="224" spans="1:36" ht="12.75" customHeight="1">
       <c r="A224" s="71"/>
       <c r="B224" s="67"/>
       <c r="C224" s="68"/>
@@ -12935,7 +12938,7 @@
       <c r="AI224" s="69"/>
       <c r="AJ224" s="69"/>
     </row>
-    <row r="225" spans="1:36" ht="12.75" customHeight="1">
+    <row r="225" spans="1:36" ht="12" customHeight="1">
       <c r="A225" s="71"/>
       <c r="B225" s="67"/>
       <c r="C225" s="68"/>
@@ -13303,7 +13306,17 @@
       <c r="W234" s="69"/>
       <c r="X234" s="69"/>
       <c r="Y234" s="69"/>
-      <c r="Z234" s="70"/>
+      <c r="Z234" s="69"/>
+      <c r="AA234" s="69"/>
+      <c r="AB234" s="69"/>
+      <c r="AC234" s="69"/>
+      <c r="AD234" s="69"/>
+      <c r="AE234" s="69"/>
+      <c r="AF234" s="69"/>
+      <c r="AG234" s="69"/>
+      <c r="AH234" s="69"/>
+      <c r="AI234" s="69"/>
+      <c r="AJ234" s="69"/>
     </row>
     <row r="235" spans="1:36" ht="12.75" customHeight="1">
       <c r="A235" s="71"/>
@@ -33886,36 +33899,64 @@
       <c r="Z969" s="70"/>
     </row>
     <row r="970" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A970" s="84"/>
-      <c r="B970" s="85"/>
-      <c r="C970" s="86"/>
-      <c r="D970" s="87"/>
-      <c r="E970" s="87"/>
-      <c r="F970" s="86"/>
-      <c r="G970" s="86"/>
-      <c r="H970" s="87"/>
-      <c r="I970" s="87"/>
-      <c r="J970" s="87"/>
-      <c r="K970" s="87"/>
-      <c r="L970" s="87"/>
-      <c r="M970" s="87"/>
-      <c r="N970" s="87"/>
-      <c r="O970" s="87"/>
-      <c r="P970" s="87"/>
-      <c r="Q970" s="87"/>
-      <c r="R970" s="87"/>
-      <c r="S970" s="87"/>
-      <c r="T970" s="87"/>
-      <c r="U970" s="87"/>
-      <c r="V970" s="87"/>
-      <c r="W970" s="87"/>
-      <c r="X970" s="87"/>
-      <c r="Y970" s="87"/>
-      <c r="Z970" s="88"/>
+      <c r="A970" s="71"/>
+      <c r="B970" s="67"/>
+      <c r="C970" s="68"/>
+      <c r="D970" s="69"/>
+      <c r="E970" s="69"/>
+      <c r="F970" s="68"/>
+      <c r="G970" s="68"/>
+      <c r="H970" s="69"/>
+      <c r="I970" s="69"/>
+      <c r="J970" s="69"/>
+      <c r="K970" s="69"/>
+      <c r="L970" s="69"/>
+      <c r="M970" s="69"/>
+      <c r="N970" s="69"/>
+      <c r="O970" s="69"/>
+      <c r="P970" s="69"/>
+      <c r="Q970" s="69"/>
+      <c r="R970" s="69"/>
+      <c r="S970" s="69"/>
+      <c r="T970" s="69"/>
+      <c r="U970" s="69"/>
+      <c r="V970" s="69"/>
+      <c r="W970" s="69"/>
+      <c r="X970" s="69"/>
+      <c r="Y970" s="69"/>
+      <c r="Z970" s="70"/>
+    </row>
+    <row r="971" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A971" s="84"/>
+      <c r="B971" s="85"/>
+      <c r="C971" s="86"/>
+      <c r="D971" s="87"/>
+      <c r="E971" s="87"/>
+      <c r="F971" s="86"/>
+      <c r="G971" s="86"/>
+      <c r="H971" s="87"/>
+      <c r="I971" s="87"/>
+      <c r="J971" s="87"/>
+      <c r="K971" s="87"/>
+      <c r="L971" s="87"/>
+      <c r="M971" s="87"/>
+      <c r="N971" s="87"/>
+      <c r="O971" s="87"/>
+      <c r="P971" s="87"/>
+      <c r="Q971" s="87"/>
+      <c r="R971" s="87"/>
+      <c r="S971" s="87"/>
+      <c r="T971" s="87"/>
+      <c r="U971" s="87"/>
+      <c r="V971" s="87"/>
+      <c r="W971" s="87"/>
+      <c r="X971" s="87"/>
+      <c r="Y971" s="87"/>
+      <c r="Z971" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -33930,7 +33971,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -33957,7 +33998,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="90" t="s">
@@ -33974,7 +34015,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="91"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="90" t="s">
         <v>1</v>
       </c>
@@ -33989,7 +34030,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="91"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="90" t="s">
         <v>5</v>
       </c>
@@ -34001,7 +34042,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="90" t="s">
         <v>26</v>
       </c>
@@ -34013,7 +34054,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="91"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="90" t="s">
         <v>27</v>
       </c>
@@ -34025,7 +34066,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="90" t="s">
         <v>2</v>
       </c>
@@ -34037,7 +34078,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="91"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="90" t="s">
         <v>90</v>
       </c>
@@ -34049,7 +34090,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="90" t="s">
@@ -34066,7 +34107,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="90" t="s">
         <v>1</v>
       </c>
@@ -34081,7 +34122,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="91"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="90" t="s">
         <v>5</v>
       </c>
@@ -34093,7 +34134,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="91"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="90" t="s">
         <v>93</v>
       </c>
@@ -34105,7 +34146,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="91"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="90" t="s">
         <v>42</v>
       </c>
@@ -34117,7 +34158,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="91"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="90" t="s">
         <v>94</v>
       </c>
@@ -34127,7 +34168,7 @@
       <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="90" t="s">
@@ -34144,7 +34185,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="91"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="90" t="s">
         <v>40</v>
       </c>
@@ -34159,7 +34200,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="91"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="90" t="s">
         <v>39</v>
       </c>
@@ -34171,7 +34212,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="91"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="90" t="s">
         <v>4</v>
       </c>
@@ -34183,7 +34224,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="91"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="90" t="s">
         <v>96</v>
       </c>
@@ -34195,7 +34236,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="91"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="90" t="s">
         <v>45</v>
       </c>
@@ -34207,7 +34248,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="91"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="90" t="s">
         <v>46</v>
       </c>
@@ -34219,7 +34260,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="91"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="90" t="s">
         <v>48</v>
       </c>
@@ -34231,7 +34272,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="91"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="90" t="s">
         <v>47</v>
       </c>
@@ -34243,7 +34284,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="97" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="90" t="s">
@@ -34251,49 +34292,49 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="91"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="90" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="91"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="90" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="90" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="91"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="90" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="91"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="90" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="91"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="90" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="91"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="90" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="97" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="90" t="s">
@@ -34310,7 +34351,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="91"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="90" t="s">
         <v>51</v>
       </c>
@@ -34325,7 +34366,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="91"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="90" t="s">
         <v>52</v>
       </c>
@@ -34337,7 +34378,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="91"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="90" t="s">
         <v>4</v>
       </c>
@@ -34349,7 +34390,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="91"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="90" t="s">
         <v>5</v>
       </c>
@@ -34361,7 +34402,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="91"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="90" t="s">
         <v>50</v>
       </c>
@@ -34373,7 +34414,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="91"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="90" t="s">
         <v>103</v>
       </c>
@@ -34385,7 +34426,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="91"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="90" t="s">
         <v>54</v>
       </c>
@@ -34397,7 +34438,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="91"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="90" t="s">
         <v>55</v>
       </c>
@@ -34409,7 +34450,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="91"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="90" t="s">
         <v>53</v>
       </c>
@@ -34421,7 +34462,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="91"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="90" t="s">
         <v>104</v>
       </c>
@@ -34433,7 +34474,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="91"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="90" t="s">
         <v>48</v>
       </c>
@@ -34445,7 +34486,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="97" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="90" t="s">
@@ -34462,7 +34503,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="91"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="90" t="s">
         <v>3</v>
       </c>
@@ -34477,7 +34518,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="91"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="90" t="s">
         <v>2</v>
       </c>
@@ -34489,7 +34530,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="91"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="90" t="s">
         <v>4</v>
       </c>
@@ -34501,7 +34542,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="91"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="90" t="s">
         <v>5</v>
       </c>
@@ -34513,7 +34554,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="91"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="90" t="s">
         <v>39</v>
       </c>
@@ -34525,7 +34566,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="91"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="90" t="s">
         <v>40</v>
       </c>
@@ -34537,7 +34578,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="91"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="90" t="s">
         <v>106</v>
       </c>
@@ -34549,7 +34590,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="97" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="90" t="s">
@@ -34566,7 +34607,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="91"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="90" t="s">
         <v>3</v>
       </c>
@@ -34581,7 +34622,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="91"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="90" t="s">
         <v>2</v>
       </c>
@@ -34593,7 +34634,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="91"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="90" t="s">
         <v>4</v>
       </c>
@@ -34605,7 +34646,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="91"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="90" t="s">
         <v>5</v>
       </c>
@@ -34617,7 +34658,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="91"/>
+      <c r="A57" s="98"/>
       <c r="B57" s="90" t="s">
         <v>46</v>
       </c>
@@ -34629,7 +34670,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="91"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="90" t="s">
         <v>48</v>
       </c>
@@ -34641,7 +34682,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="91"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="90" t="s">
         <v>58</v>
       </c>
@@ -34653,7 +34694,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="91"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="90" t="s">
         <v>55</v>
       </c>
@@ -34665,7 +34706,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="91"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="90" t="s">
         <v>43</v>
       </c>
@@ -34677,7 +34718,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="91"/>
+      <c r="A62" s="98"/>
       <c r="B62" s="90" t="s">
         <v>42</v>
       </c>
@@ -34689,7 +34730,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="91"/>
+      <c r="A63" s="98"/>
       <c r="B63" s="39" t="s">
         <v>59</v>
       </c>
